--- a/trunk/工作计划安排.xlsx
+++ b/trunk/工作计划安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20111221" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>1、</t>
   </si>
@@ -123,7 +123,22 @@
     <t>msg_time</t>
   </si>
   <si>
-    <t>CRUD develop</t>
+    <t>Action structure design</t>
+  </si>
+  <si>
+    <t>action name is unique</t>
+  </si>
+  <si>
+    <t>java reflection</t>
+  </si>
+  <si>
+    <t>c.</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>20:00-21:00</t>
   </si>
 </sst>
 </file>
@@ -630,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H10:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -684,20 +699,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G10:H10"/>
+  <dimension ref="G10:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="7:8">
+    <row r="10" spans="7:13">
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
         <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="7:13">
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="7:13">
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="7:13">
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="7:13">
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/工作计划安排.xlsx
+++ b/trunk/工作计划安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="20111221" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>1、</t>
   </si>
@@ -138,7 +138,10 @@
     <t>debug</t>
   </si>
   <si>
-    <t>20:00-21:00</t>
+    <t>20:00-22:30</t>
+  </si>
+  <si>
+    <t>2.5h</t>
   </si>
 </sst>
 </file>
@@ -488,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G10:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,7 +649,7 @@
   <dimension ref="H10:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -701,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G10:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -731,7 +734,7 @@
         <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="7:13">

--- a/trunk/工作计划安排.xlsx
+++ b/trunk/工作计划安排.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="20111221" sheetId="1" r:id="rId1"/>
     <sheet name="20111222" sheetId="2" r:id="rId2"/>
     <sheet name="20111223" sheetId="3" r:id="rId3"/>
+    <sheet name="20111226" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>1、</t>
   </si>
@@ -142,6 +143,69 @@
   </si>
   <si>
     <t>2.5h</t>
+  </si>
+  <si>
+    <t>Struts study</t>
+  </si>
+  <si>
+    <t>10:30-13:00</t>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>query page</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>JSTL study</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>ActionForm study</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>clone</t>
+  </si>
+  <si>
+    <t>CURD develop</t>
+  </si>
+  <si>
+    <t>16:30-17:30</t>
+  </si>
+  <si>
+    <t>发送者</t>
+  </si>
+  <si>
+    <t>接收者</t>
+  </si>
+  <si>
+    <t>隐藏</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>20:50-21:50</t>
+  </si>
+  <si>
+    <t>事务处理</t>
+  </si>
+  <si>
+    <t>超链接的相对路径和绝对路径问题</t>
+  </si>
+  <si>
+    <t>页面返回问题</t>
   </si>
 </sst>
 </file>
@@ -491,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G10:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -764,4 +828,170 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="H10:M30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="10" spans="8:13">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="8:13">
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="8:13">
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="8:13">
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="8:13">
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="8:13">
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13">
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13">
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13">
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13">
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13">
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="8:13">
+      <c r="I24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13">
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13">
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="8:13">
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="8:13">
+      <c r="I28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="8:13">
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/工作计划安排.xlsx
+++ b/trunk/工作计划安排.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20111221" sheetId="1" r:id="rId1"/>
     <sheet name="20111222" sheetId="2" r:id="rId2"/>
     <sheet name="20111223" sheetId="3" r:id="rId3"/>
     <sheet name="20111226" sheetId="4" r:id="rId4"/>
+    <sheet name="20111227" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>1、</t>
   </si>
@@ -206,6 +207,15 @@
   </si>
   <si>
     <t>页面返回问题</t>
+  </si>
+  <si>
+    <t>22:20-23:20</t>
+  </si>
+  <si>
+    <t>完成修改和删除功能</t>
+  </si>
+  <si>
+    <t>9:30-11:30</t>
   </si>
 </sst>
 </file>
@@ -832,10 +842,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H10:M30"/>
+  <dimension ref="H10:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -929,40 +939,40 @@
       </c>
     </row>
     <row r="19" spans="8:13">
-      <c r="H19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" t="s">
-        <v>60</v>
+      <c r="K19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="8:13">
       <c r="H20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="8:13">
       <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13">
+      <c r="H22" t="s">
         <v>49</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I22" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="8:13">
-      <c r="I24" t="s">
-        <v>2</v>
-      </c>
-      <c r="K24" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="8:13">
       <c r="I25" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="K25" t="s">
         <v>57</v>
@@ -970,25 +980,62 @@
     </row>
     <row r="26" spans="8:13">
       <c r="I26" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="K26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="8:13">
       <c r="I27" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="8:13">
       <c r="I28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="8:13">
+      <c r="I29" t="s">
         <v>6</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="8:13">
-      <c r="J30" t="s">
+    <row r="31" spans="8:13">
+      <c r="J31" t="s">
         <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="H9:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="9" spans="8:14">
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/工作计划安排.xlsx
+++ b/trunk/工作计划安排.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>1、</t>
   </si>
@@ -216,6 +216,21 @@
   </si>
   <si>
     <t>9:30-11:30</t>
+  </si>
+  <si>
+    <t>2、</t>
+  </si>
+  <si>
+    <t>设计完成翻页功能</t>
+  </si>
+  <si>
+    <t>需要设计一个公共的页面header</t>
+  </si>
+  <si>
+    <t>在URL中的项目名称需要可以配置</t>
+  </si>
+  <si>
+    <t>返回功能</t>
   </si>
 </sst>
 </file>
@@ -1016,13 +1031,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H9:N9"/>
+  <dimension ref="H9:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="9" spans="8:14">
       <c r="H9" t="s">
@@ -1038,6 +1056,38 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" spans="8:14">
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="8:14">
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="8:14">
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="8:14">
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/工作计划安排.xlsx
+++ b/trunk/工作计划安排.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>1、</t>
   </si>
@@ -231,6 +231,36 @@
   </si>
   <si>
     <t>返回功能</t>
+  </si>
+  <si>
+    <t>13:45-15:45</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>尾页</t>
+  </si>
+  <si>
+    <t>上一页</t>
+  </si>
+  <si>
+    <t>下一页</t>
+  </si>
+  <si>
+    <t>页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go </t>
+  </si>
+  <si>
+    <t>每页显示10条</t>
+  </si>
+  <si>
+    <t>第1/15页</t>
+  </si>
+  <si>
+    <t>16:15-17:30</t>
   </si>
 </sst>
 </file>
@@ -268,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -276,14 +306,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,32 +1078,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H9:N14"/>
+  <dimension ref="H9:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="8:14">
+    <row r="9" spans="8:15">
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>64</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>65</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="8:14">
+    <row r="10" spans="8:15">
       <c r="H10" t="s">
         <v>45</v>
       </c>
@@ -1064,7 +1119,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="8:14">
+    <row r="11" spans="8:15">
       <c r="H11" t="s">
         <v>47</v>
       </c>
@@ -1072,7 +1127,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="8:14">
+    <row r="12" spans="8:15">
       <c r="H12" t="s">
         <v>49</v>
       </c>
@@ -1080,12 +1135,53 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="8:14">
+    <row r="14" spans="8:15">
       <c r="H14" t="s">
         <v>66</v>
       </c>
       <c r="I14" t="s">
         <v>67</v>
+      </c>
+      <c r="M14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="8:15">
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="8:16">
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/工作计划安排.xlsx
+++ b/trunk/工作计划安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="20111221" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="20111223" sheetId="3" r:id="rId3"/>
     <sheet name="20111226" sheetId="4" r:id="rId4"/>
     <sheet name="20111227" sheetId="5" r:id="rId5"/>
+    <sheet name="20111228" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
   <si>
     <t>1、</t>
   </si>
@@ -261,6 +262,18 @@
   </si>
   <si>
     <t>16:15-17:30</t>
+  </si>
+  <si>
+    <t>翻页组件设计实现</t>
+  </si>
+  <si>
+    <t>10:30-12:00</t>
+  </si>
+  <si>
+    <t>结果集的表示问题</t>
+  </si>
+  <si>
+    <t>oracle翻页语句拼装</t>
   </si>
 </sst>
 </file>
@@ -906,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H10:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -1080,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H9:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1187,4 +1200,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="H10:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="8:14">
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="8:14">
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="8:14">
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/工作计划安排.xlsx
+++ b/trunk/工作计划安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="20111221" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="20111226" sheetId="4" r:id="rId4"/>
     <sheet name="20111227" sheetId="5" r:id="rId5"/>
     <sheet name="20111228" sheetId="6" r:id="rId6"/>
+    <sheet name="20111230" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>1、</t>
   </si>
@@ -274,6 +275,18 @@
   </si>
   <si>
     <t>oracle翻页语句拼装</t>
+  </si>
+  <si>
+    <t>ajax翻页</t>
+  </si>
+  <si>
+    <t>15:30-17:30</t>
+  </si>
+  <si>
+    <t>翻页组件界面层组件开发</t>
+  </si>
+  <si>
+    <t>20:30-22:30</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1107,7 @@
   <dimension ref="H9:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1204,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H10:N12"/>
+  <dimension ref="H10:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1230,22 +1243,81 @@
       </c>
     </row>
     <row r="11" spans="8:14">
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" t="s">
-        <v>83</v>
-      </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>86</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="8:14">
       <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="8:14">
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>84</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="8:14">
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="8:14">
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="G11:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="7:14">
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/工作计划安排.xlsx
+++ b/trunk/工作计划安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="20111221" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="20111228" sheetId="6" r:id="rId6"/>
     <sheet name="20111230" sheetId="7" r:id="rId7"/>
     <sheet name="20120109" sheetId="8" r:id="rId8"/>
+    <sheet name="20120112" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
   <si>
     <t>1、</t>
   </si>
@@ -299,6 +300,54 @@
   </si>
   <si>
     <t>1.5h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决查询首页的翻页问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加查询条件翻页功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.页面层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.后台交易</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-11:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-16:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1363,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F12:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1387,4 +1436,70 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G12:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="6.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>